--- a/StockAssessment/top20_analysis.xlsx
+++ b/StockAssessment/top20_analysis.xlsx
@@ -70,7 +70,7 @@
     <t>age composition|age frequency|age observation</t>
   </si>
   <si>
-    <t>forecast|projection|prediction</t>
+    <t>projection|forecast|prediction</t>
   </si>
   <si>
     <t>sex|gender</t>
@@ -2873,7 +2873,7 @@
         <v>20.0</v>
       </c>
       <c r="S35" t="n">
-        <v>39.0</v>
+        <v>45.0</v>
       </c>
       <c r="T35" t="n">
         <v>40.0</v>
@@ -3086,7 +3086,7 @@
         <v>26.0</v>
       </c>
       <c r="S38" t="n">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
       <c r="T38" t="n">
         <v>432.0</v>
@@ -3228,7 +3228,7 @@
         <v>34.0</v>
       </c>
       <c r="S40" t="n">
-        <v>69.0</v>
+        <v>73.0</v>
       </c>
       <c r="T40" t="n">
         <v>46.0</v>
@@ -3583,7 +3583,7 @@
         <v>45.0</v>
       </c>
       <c r="S45" t="n">
-        <v>89.0</v>
+        <v>90.0</v>
       </c>
       <c r="T45" t="n">
         <v>10.0</v>
@@ -3867,7 +3867,7 @@
         <v>41.0</v>
       </c>
       <c r="S49" t="n">
-        <v>44.0</v>
+        <v>46.0</v>
       </c>
       <c r="T49" t="n">
         <v>29.0</v>
@@ -5358,7 +5358,7 @@
         <v>29.0</v>
       </c>
       <c r="S70" t="n">
-        <v>50.0</v>
+        <v>48.0</v>
       </c>
       <c r="T70" t="n">
         <v>8.0</v>
@@ -5500,7 +5500,7 @@
         <v>7.0</v>
       </c>
       <c r="S72" t="n">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
       <c r="T72" t="n">
         <v>25.0</v>
@@ -5571,7 +5571,7 @@
         <v>142.0</v>
       </c>
       <c r="S73" t="n">
-        <v>106.0</v>
+        <v>111.0</v>
       </c>
       <c r="T73" t="n">
         <v>2.0</v>
@@ -5784,7 +5784,7 @@
         <v>72.0</v>
       </c>
       <c r="S76" t="n">
-        <v>87.0</v>
+        <v>89.0</v>
       </c>
       <c r="T76" t="n">
         <v>10.0</v>
@@ -6068,7 +6068,7 @@
         <v>1.0</v>
       </c>
       <c r="S80" t="n">
-        <v>290.0</v>
+        <v>289.0</v>
       </c>
       <c r="T80" t="n">
         <v>80.0</v>
@@ -6210,7 +6210,7 @@
         <v>46.0</v>
       </c>
       <c r="S82" t="n">
-        <v>39.0</v>
+        <v>40.0</v>
       </c>
       <c r="T82" t="n">
         <v>22.0</v>
@@ -6281,7 +6281,7 @@
         <v>39.0</v>
       </c>
       <c r="S83" t="n">
-        <v>55.0</v>
+        <v>58.0</v>
       </c>
       <c r="T83" t="n">
         <v>24.0</v>
@@ -6423,7 +6423,7 @@
         <v>0.0</v>
       </c>
       <c r="S85" t="n">
-        <v>35.0</v>
+        <v>38.0</v>
       </c>
       <c r="T85" t="n">
         <v>34.0</v>
@@ -17880,7 +17880,7 @@
         <v>0.02</v>
       </c>
       <c r="S76" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="T76" t="n">
         <v>0.0</v>
